--- a/deployment/Omaha_Cal_Info_CP04OSPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="10176" windowWidth="24636" windowHeight="9804" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="10200" yWindow="10170" windowWidth="24630" windowHeight="9810" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$83</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$398</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>Ref Des</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Sensor OOIBARCODE</t>
+  </si>
+  <si>
+    <t>OL000343</t>
+  </si>
+  <si>
+    <t>OL000344</t>
   </si>
 </sst>
 </file>
@@ -994,24 +1000,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="11" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="12" width="44" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6">
+    <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="26" t="s">
         <v>67</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1084,8 +1090,14 @@
         <v>65</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="M2" s="11">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.941516666666665</v>
+      </c>
+      <c r="N2" s="11">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.878433333333334</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="E3" s="6"/>
@@ -1110,24 +1122,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1982,9 @@
       <c r="D33" s="13">
         <v>2</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
       <c r="F33" s="24" t="s">
         <v>66</v>
       </c>
@@ -2006,7 +2020,9 @@
       <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="19" t="s">
         <v>59</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP04OSPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSPM_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="10170" windowWidth="24630" windowHeight="9810" tabRatio="377"/>
+    <workbookView xWindow="10200" yWindow="10170" windowWidth="24630" windowHeight="9810" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,6 @@
     <t>CP04OSPM-WFP01-00-WFPENG000</t>
   </si>
   <si>
-    <t>CP04OSPM-SBS01-01-MOPAK0000</t>
-  </si>
-  <si>
     <t>OSPM-00002-MOPAK</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>OL000344</t>
+  </si>
+  <si>
+    <t>CP04OSPM-SBS11-02-MOPAK0000</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1019,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>34</v>
@@ -1087,7 +1087,7 @@
         <v>450</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="11">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1153,7 +1153,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1170,7 +1170,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>40</v>
@@ -1179,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>16</v>
@@ -1200,7 +1200,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>40</v>
@@ -1209,10 +1209,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>14</v>
@@ -1228,7 +1228,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
@@ -1237,10 +1237,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>15</v>
@@ -1256,7 +1256,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>40</v>
@@ -1265,10 +1265,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>17</v>
@@ -1286,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>40</v>
@@ -1295,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>18</v>
@@ -1316,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>19</v>
@@ -1346,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>40</v>
@@ -1355,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>20</v>
@@ -1376,7 +1376,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>40</v>
@@ -1385,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>21</v>
@@ -1418,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="13">
         <v>106</v>
@@ -1446,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>40</v>
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="13">
         <v>106</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>40</v>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="14">
         <v>100003</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>40</v>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="14">
         <v>100003</v>
@@ -1554,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>40</v>
@@ -1563,13 +1563,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="13">
         <v>969</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="21">
         <v>1.0760000000000001</v>
@@ -1584,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>40</v>
@@ -1593,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="13">
         <v>969</v>
@@ -1614,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>40</v>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="13">
         <v>969</v>
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>40</v>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="13">
         <v>969</v>
@@ -1674,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>40</v>
@@ -1683,13 +1683,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="13">
         <v>969</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="22">
         <v>3.9E-2</v>
@@ -1704,7 +1704,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>40</v>
@@ -1713,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="13">
         <v>969</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="22">
         <v>700</v>
@@ -1734,7 +1734,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>40</v>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="13">
         <v>969</v>
@@ -1764,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>40</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="13">
         <v>969</v>
@@ -1794,7 +1794,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>40</v>
@@ -1803,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="13">
         <v>969</v>
@@ -1824,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>40</v>
@@ -1833,13 +1833,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="13">
         <v>969</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="21">
         <v>124</v>
@@ -1866,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>40</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="13">
         <v>20423</v>
@@ -1896,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>40</v>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="13">
         <v>20423</v>
@@ -1938,19 +1938,19 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="13">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>69</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>40</v>
@@ -1983,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="18"/>
@@ -2009,22 +2009,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="13">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
